--- a/raw_data/local_continuum/processed/Florida.xlsx
+++ b/raw_data/local_continuum/processed/Florida.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Fojo\CloudStation\Projects\Ending HIV\Ending_HIV\raw_data\local_continuum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Fojo\CloudStation\Projects\Ending HIV\Ending_HIV\raw_data\local_continuum\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>2015 totals from</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Florida Health Department</t>
+  </si>
+  <si>
+    <t>testurl.org</t>
   </si>
 </sst>
 </file>
@@ -474,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:F17"/>
+      <selection pane="bottomRight" activeCell="Z20" sqref="C20:Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,6 +1914,166 @@
       </c>
       <c r="Z18" s="10">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1984,9 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="B1 B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
